--- a/sotsuron_n42.xlsx
+++ b/sotsuron_n42.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Mac-2101/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1464B85F-41DB-0A42-8B79-81F76E6ABD55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{669EFFE6-B810-0D43-B4F4-708C0CA11825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1600" yWindow="500" windowWidth="28300" windowHeight="16340" xr2:uid="{5768D193-F5D2-5349-AE80-81BE7FBA2E30}"/>
   </bookViews>
@@ -609,8 +609,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AB67353-A9E3-4B4C-B3A9-2B65C0E8B954}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A25" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="E1" sqref="E1"/>
+      <selection pane="bottomLeft" activeCell="P46" sqref="P46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -706,10 +708,10 @@
         <v>35</v>
       </c>
       <c r="M2">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N2">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -750,10 +752,10 @@
         <v>15</v>
       </c>
       <c r="M3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N3">
-        <v>14</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -794,10 +796,10 @@
         <v>32</v>
       </c>
       <c r="M4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N4">
-        <v>15</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -838,10 +840,10 @@
         <v>28</v>
       </c>
       <c r="M5">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N5">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -882,10 +884,10 @@
         <v>36</v>
       </c>
       <c r="M6">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N6">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -926,10 +928,10 @@
         <v>19</v>
       </c>
       <c r="M7">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="N7">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -970,10 +972,10 @@
         <v>29</v>
       </c>
       <c r="M8">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N8">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -1014,10 +1016,10 @@
         <v>34</v>
       </c>
       <c r="M9">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N9">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -1058,10 +1060,10 @@
         <v>35</v>
       </c>
       <c r="M10">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="N10">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1102,10 +1104,10 @@
         <v>39</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="N11">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1146,10 +1148,10 @@
         <v>41</v>
       </c>
       <c r="M12">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="N12">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1190,10 +1192,10 @@
         <v>32</v>
       </c>
       <c r="M13">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N13">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1234,10 +1236,10 @@
         <v>17</v>
       </c>
       <c r="M14">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N14">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1278,10 +1280,10 @@
         <v>38</v>
       </c>
       <c r="M15">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N15">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1322,10 +1324,10 @@
         <v>33</v>
       </c>
       <c r="M16">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="N16">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1366,10 +1368,10 @@
         <v>27</v>
       </c>
       <c r="M17">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N17">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1410,10 +1412,10 @@
         <v>33</v>
       </c>
       <c r="M18">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N18">
-        <v>25</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1454,10 +1456,10 @@
         <v>30</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N19">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1498,10 +1500,10 @@
         <v>40</v>
       </c>
       <c r="M20">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N20">
-        <v>37</v>
+        <v>42</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1542,10 +1544,10 @@
         <v>29</v>
       </c>
       <c r="M21">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N21">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1586,10 +1588,10 @@
         <v>32</v>
       </c>
       <c r="M22">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N22">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1630,10 +1632,10 @@
         <v>32</v>
       </c>
       <c r="M23">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N23">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1674,10 +1676,10 @@
         <v>40</v>
       </c>
       <c r="M24">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="N24">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1718,10 +1720,10 @@
         <v>20</v>
       </c>
       <c r="M25">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N25">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1762,10 +1764,10 @@
         <v>26</v>
       </c>
       <c r="M26">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N26">
-        <v>18</v>
+        <v>23</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1806,10 +1808,10 @@
         <v>32</v>
       </c>
       <c r="M27">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="N27">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1850,10 +1852,10 @@
         <v>34</v>
       </c>
       <c r="M28">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="N28">
-        <v>17</v>
+        <v>22</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1894,10 +1896,10 @@
         <v>31</v>
       </c>
       <c r="M29">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N29">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1938,10 +1940,10 @@
         <v>34</v>
       </c>
       <c r="M30">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N30">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1982,10 +1984,10 @@
         <v>32</v>
       </c>
       <c r="M31">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N31">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -2026,10 +2028,10 @@
         <v>20</v>
       </c>
       <c r="M32">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N32">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -2070,10 +2072,10 @@
         <v>32</v>
       </c>
       <c r="M33">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N33">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2114,10 +2116,10 @@
         <v>35</v>
       </c>
       <c r="M34">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N34">
-        <v>16</v>
+        <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2158,10 +2160,10 @@
         <v>38</v>
       </c>
       <c r="M35">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="N35">
-        <v>19</v>
+        <v>24</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2202,10 +2204,10 @@
         <v>23</v>
       </c>
       <c r="M36">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="N36">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2246,10 +2248,10 @@
         <v>24</v>
       </c>
       <c r="M37">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="N37">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2290,10 +2292,10 @@
         <v>38</v>
       </c>
       <c r="M38">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="N38">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2334,10 +2336,10 @@
         <v>41</v>
       </c>
       <c r="M39">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="N39">
-        <v>33</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2378,10 +2380,10 @@
         <v>31</v>
       </c>
       <c r="M40">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="N40">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2422,10 +2424,10 @@
         <v>34</v>
       </c>
       <c r="M41">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="N41">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2466,10 +2468,10 @@
         <v>29</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="N42">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
   </sheetData>
